--- a/public/upload/vitri2/Vi_tri_nuoc_NH2.xlsx
+++ b/public/upload/vitri2/Vi_tri_nuoc_NH2.xlsx
@@ -1344,12 +1344,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="75" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="86.21875" customWidth="1"/>
   </cols>
@@ -3034,7 +3035,7 @@
     </row>
     <row r="45" spans="2:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>18</v>
